--- a/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-2ndInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-2ndInstallment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +202,29 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -245,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -268,7 +291,17 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1334,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1412,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>4017</v>
+        <v>438</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>30</v>
@@ -1398,12 +1431,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="9">
-        <v>5142.6899999999996</v>
+        <v>5142.82</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>4016</v>
+        <v>437</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1460,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>4018</v>
+        <v>440</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
@@ -1436,22 +1469,22 @@
         <v>42063</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7">
-        <v>46.43</v>
+        <v>46.56</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <v>0</v>
+      <c r="J4" s="9">
+        <v>5090.9399999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>4015</v>
+        <v>439</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>30</v>
@@ -1460,46 +1493,46 @@
         <v>42063</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="7">
-        <v>46.43</v>
+        <v>0.13</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="9">
-        <v>5090.8100000000004</v>
+      <c r="J5" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>4013</v>
+        <v>435</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7">
-        <v>44.38</v>
+        <v>46.43</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="9">
-        <v>5044.38</v>
+      <c r="J6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>4012</v>
+        <v>434</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
@@ -1508,7 +1541,7 @@
         <v>42035</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="7">
         <v>44.38</v>
@@ -1517,31 +1550,55 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7">
-        <v>0</v>
+      <c r="J7" s="9">
+        <v>5044.38</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>4011</v>
+        <v>433</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7">
+        <v>44.38</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>432</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
         <v>42009</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>5000</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -1555,87 +1612,92 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="11"/>
+    <col min="5" max="5" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="13">
         <v>42051</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-2ndInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-2ndInstallment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,24 +212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -291,17 +275,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,7 +606,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +666,7 @@
         <v>247.76</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>97.04</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,7 +706,7 @@
         <v>0.13</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +719,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +936,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1387,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>30</v>
@@ -1436,7 +1411,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -1460,7 +1435,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
@@ -1484,7 +1459,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>30</v>
@@ -1508,7 +1483,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
@@ -1532,7 +1507,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
@@ -1556,7 +1531,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
@@ -1580,7 +1555,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
@@ -1612,96 +1587,96 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="11"/>
-    <col min="5" max="5" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="8">
         <v>42051</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/43/waivecharge/215" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/215"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/18/waivecharge/80" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/18/waivecharge/80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
